--- a/data/crowd_predictions_next7days_with_levels.xlsx
+++ b/data/crowd_predictions_next7days_with_levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menuka\Desktop\Research\smartsl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7C56B-5B95-4F76-A405-540297C8F8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE501DB-1802-45FD-911F-936453A4469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3353" workbookViewId="0">
-      <selection activeCell="B3194" sqref="B3194:B3361"/>
+    <sheetView tabSelected="1" topLeftCell="A2700" workbookViewId="0">
+      <selection activeCell="H2717" sqref="H2717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
